--- a/excel/VentasPos.xlsx
+++ b/excel/VentasPos.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F798"/>
+  <dimension ref="A1:F847"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16362,9 +16362,989 @@
         <v>0</v>
       </c>
     </row>
+    <row r="799">
+      <c r="A799">
+        <v>543</v>
+      </c>
+      <c r="B799" t="str">
+        <v>Jabón Barra Dove Original 90g 1 Unidad</v>
+      </c>
+      <c r="C799">
+        <v>1</v>
+      </c>
+      <c r="D799">
+        <v>1990</v>
+      </c>
+      <c r="E799">
+        <v>1990</v>
+      </c>
+      <c r="F799">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800">
+        <v>544</v>
+      </c>
+      <c r="B800" t="str">
+        <v>PARACETAMOL 500mg</v>
+      </c>
+      <c r="C800">
+        <v>2</v>
+      </c>
+      <c r="D800">
+        <v>850</v>
+      </c>
+      <c r="E800">
+        <v>1700</v>
+      </c>
+      <c r="F800">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801">
+        <v>544</v>
+      </c>
+      <c r="B801" t="str">
+        <v>Clonixinato de Lisina 125 mg x 10 Comprimidos</v>
+      </c>
+      <c r="C801">
+        <v>1</v>
+      </c>
+      <c r="D801">
+        <v>2390</v>
+      </c>
+      <c r="E801">
+        <v>2390</v>
+      </c>
+      <c r="F801">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802">
+        <v>545</v>
+      </c>
+      <c r="B802" t="str">
+        <v>CORTAUÑAS</v>
+      </c>
+      <c r="C802">
+        <v>1</v>
+      </c>
+      <c r="D802">
+        <v>1490</v>
+      </c>
+      <c r="E802">
+        <v>1490</v>
+      </c>
+      <c r="F802">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803">
+        <v>545</v>
+      </c>
+      <c r="B803" t="str">
+        <v>Jabon De Afrecho</v>
+      </c>
+      <c r="C803">
+        <v>1</v>
+      </c>
+      <c r="D803">
+        <v>2990</v>
+      </c>
+      <c r="E803">
+        <v>2990</v>
+      </c>
+      <c r="F803">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804">
+        <v>546</v>
+      </c>
+      <c r="B804" t="str">
+        <v>ESCAPEL-1</v>
+      </c>
+      <c r="C804">
+        <v>1</v>
+      </c>
+      <c r="D804">
+        <v>20090</v>
+      </c>
+      <c r="E804">
+        <v>20090</v>
+      </c>
+      <c r="F804">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805">
+        <v>547</v>
+      </c>
+      <c r="B805" t="str">
+        <v>Tapsin M Migraña Paracetamol 400 mg Cafeína 33 mg</v>
+      </c>
+      <c r="C805">
+        <v>1</v>
+      </c>
+      <c r="D805">
+        <v>1990</v>
+      </c>
+      <c r="E805">
+        <v>1990</v>
+      </c>
+      <c r="F805">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806">
+        <v>548</v>
+      </c>
+      <c r="B806" t="str">
+        <v>Melatonina 3 mg x 30 Cápsulas</v>
+      </c>
+      <c r="C806">
+        <v>2</v>
+      </c>
+      <c r="D806">
+        <v>2990</v>
+      </c>
+      <c r="E806">
+        <v>5980</v>
+      </c>
+      <c r="F806">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807">
+        <v>549</v>
+      </c>
+      <c r="B807" t="str">
+        <v>PARACETAMOL 500mg</v>
+      </c>
+      <c r="C807">
+        <v>1</v>
+      </c>
+      <c r="D807">
+        <v>990</v>
+      </c>
+      <c r="E807">
+        <v>990</v>
+      </c>
+      <c r="F807">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808">
+        <v>550</v>
+      </c>
+      <c r="B808" t="str">
+        <v>Jabón Barra Dove Original 90g 1 Unidad</v>
+      </c>
+      <c r="C808">
+        <v>1</v>
+      </c>
+      <c r="D808">
+        <v>1990</v>
+      </c>
+      <c r="E808">
+        <v>1990</v>
+      </c>
+      <c r="F808">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809">
+        <v>551</v>
+      </c>
+      <c r="B809" t="str">
+        <v>Baby Wipes Toallitas Húmedas</v>
+      </c>
+      <c r="C809">
+        <v>1</v>
+      </c>
+      <c r="D809">
+        <v>1990</v>
+      </c>
+      <c r="E809">
+        <v>1990</v>
+      </c>
+      <c r="F809">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810">
+        <v>552</v>
+      </c>
+      <c r="B810" t="str">
+        <v>Trim Pinza Ceja Recta Bl 5-31b</v>
+      </c>
+      <c r="C810">
+        <v>1</v>
+      </c>
+      <c r="D810">
+        <v>1990</v>
+      </c>
+      <c r="E810">
+        <v>1990</v>
+      </c>
+      <c r="F810">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811">
+        <v>553</v>
+      </c>
+      <c r="B811" t="str">
+        <v>Omeprazol 20 mg x 30 comp</v>
+      </c>
+      <c r="C811">
+        <v>1</v>
+      </c>
+      <c r="D811">
+        <v>1990</v>
+      </c>
+      <c r="E811">
+        <v>1990</v>
+      </c>
+      <c r="F811">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812">
+        <v>554</v>
+      </c>
+      <c r="B812" t="str">
+        <v>Petalos Desmaquillantes 80 Unidades</v>
+      </c>
+      <c r="C812">
+        <v>1</v>
+      </c>
+      <c r="D812">
+        <v>1590</v>
+      </c>
+      <c r="E812">
+        <v>1590</v>
+      </c>
+      <c r="F812">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813">
+        <v>555</v>
+      </c>
+      <c r="B813" t="str">
+        <v>ENALAPRIL MALEATO 10mg x20COM</v>
+      </c>
+      <c r="C813">
+        <v>1</v>
+      </c>
+      <c r="D813">
+        <v>1200</v>
+      </c>
+      <c r="E813">
+        <v>1200</v>
+      </c>
+      <c r="F813">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814">
+        <v>556</v>
+      </c>
+      <c r="B814" t="str">
+        <v>Desodorante bí-O Toque Seco Spray Mujer</v>
+      </c>
+      <c r="C814">
+        <v>1</v>
+      </c>
+      <c r="D814">
+        <v>2290</v>
+      </c>
+      <c r="E814">
+        <v>2290</v>
+      </c>
+      <c r="F814">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815">
+        <v>557</v>
+      </c>
+      <c r="B815" t="str">
+        <v>Quetiapina 25 mg x 30 Comprimidos</v>
+      </c>
+      <c r="C815">
+        <v>2</v>
+      </c>
+      <c r="D815">
+        <v>1690</v>
+      </c>
+      <c r="E815">
+        <v>3380</v>
+      </c>
+      <c r="F815">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816">
+        <v>557</v>
+      </c>
+      <c r="B816" t="str">
+        <v>ACICLOVIR 200mg x 25 comprimidos</v>
+      </c>
+      <c r="C816">
+        <v>1</v>
+      </c>
+      <c r="D816">
+        <v>2800</v>
+      </c>
+      <c r="E816">
+        <v>2800</v>
+      </c>
+      <c r="F816">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817">
+        <v>558</v>
+      </c>
+      <c r="B817" t="str">
+        <v>KOTEX TOALLA NOCTURNA x8 UND</v>
+      </c>
+      <c r="C817">
+        <v>1</v>
+      </c>
+      <c r="D817">
+        <v>1150</v>
+      </c>
+      <c r="E817">
+        <v>1150</v>
+      </c>
+      <c r="F817">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818">
+        <v>559</v>
+      </c>
+      <c r="B818" t="str">
+        <v>Bebida Coca Cola 591 ml</v>
+      </c>
+      <c r="C818">
+        <v>2</v>
+      </c>
+      <c r="D818">
+        <v>1400</v>
+      </c>
+      <c r="E818">
+        <v>2800</v>
+      </c>
+      <c r="F818">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819">
+        <v>560</v>
+      </c>
+      <c r="B819" t="str">
+        <v>CAPTOPRIL 25mg x 30 comprimidos</v>
+      </c>
+      <c r="C819">
+        <v>1</v>
+      </c>
+      <c r="D819">
+        <v>3990</v>
+      </c>
+      <c r="E819">
+        <v>3990</v>
+      </c>
+      <c r="F819">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820">
+        <v>561</v>
+      </c>
+      <c r="B820" t="str">
+        <v>Canesten Clotrimazol 1% Spray 40 mL</v>
+      </c>
+      <c r="C820">
+        <v>1</v>
+      </c>
+      <c r="D820">
+        <v>3990</v>
+      </c>
+      <c r="E820">
+        <v>3990</v>
+      </c>
+      <c r="F820">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821">
+        <v>562</v>
+      </c>
+      <c r="B821" t="str">
+        <v>Amoval Amoxicilina 1000 mg 20 Comprimidos Recubiertos</v>
+      </c>
+      <c r="C821">
+        <v>1</v>
+      </c>
+      <c r="D821">
+        <v>21990</v>
+      </c>
+      <c r="E821">
+        <v>21990</v>
+      </c>
+      <c r="F821">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822">
+        <v>562</v>
+      </c>
+      <c r="B822" t="str">
+        <v>Despex Desloratadina 5 mg 30 Comprimidos Recubierto</v>
+      </c>
+      <c r="C822">
+        <v>1</v>
+      </c>
+      <c r="D822">
+        <v>7990</v>
+      </c>
+      <c r="E822">
+        <v>7990</v>
+      </c>
+      <c r="F822">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823">
+        <v>562</v>
+      </c>
+      <c r="B823" t="str">
+        <v>Disilden Sildenafil 50 mg 10 Comprimidos</v>
+      </c>
+      <c r="C823">
+        <v>1</v>
+      </c>
+      <c r="D823">
+        <v>3990</v>
+      </c>
+      <c r="E823">
+        <v>3990</v>
+      </c>
+      <c r="F823">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824">
+        <v>563</v>
+      </c>
+      <c r="B824" t="str">
+        <v>Mio-Relax Ciclobenzaprina 5 mg x 30 Comprimidos</v>
+      </c>
+      <c r="C824">
+        <v>1</v>
+      </c>
+      <c r="D824">
+        <v>4990</v>
+      </c>
+      <c r="E824">
+        <v>4990</v>
+      </c>
+      <c r="F824">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825">
+        <v>563</v>
+      </c>
+      <c r="B825" t="str">
+        <v>Meloxicam 15 mg 10 Comprimidos</v>
+      </c>
+      <c r="C825">
+        <v>1</v>
+      </c>
+      <c r="D825">
+        <v>2490</v>
+      </c>
+      <c r="E825">
+        <v>2490</v>
+      </c>
+      <c r="F825">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826">
+        <v>564</v>
+      </c>
+      <c r="B826" t="str">
+        <v>Celerium 200 mg x 30 Cápsulas</v>
+      </c>
+      <c r="C826">
+        <v>1</v>
+      </c>
+      <c r="D826">
+        <v>4909</v>
+      </c>
+      <c r="E826">
+        <v>4909</v>
+      </c>
+      <c r="F826">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827">
+        <v>564</v>
+      </c>
+      <c r="B827" t="str">
+        <v>PARACETAMOL 500mg</v>
+      </c>
+      <c r="C827">
+        <v>2</v>
+      </c>
+      <c r="D827">
+        <v>990</v>
+      </c>
+      <c r="E827">
+        <v>1980</v>
+      </c>
+      <c r="F827">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828">
+        <v>564</v>
+      </c>
+      <c r="B828" t="str">
+        <v>Corta Pastillas</v>
+      </c>
+      <c r="C828">
+        <v>1</v>
+      </c>
+      <c r="D828">
+        <v>2490</v>
+      </c>
+      <c r="E828">
+        <v>2490</v>
+      </c>
+      <c r="F828">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829">
+        <v>564</v>
+      </c>
+      <c r="B829" t="str">
+        <v>ELCAL D 500 /800 x60CAP</v>
+      </c>
+      <c r="C829">
+        <v>1</v>
+      </c>
+      <c r="D829">
+        <v>14990</v>
+      </c>
+      <c r="E829">
+        <v>14990</v>
+      </c>
+      <c r="F829">
+        <v>8868</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830">
+        <v>565</v>
+      </c>
+      <c r="B830" t="str">
+        <v>EUTIROX (LEVOTIROXINA SODICA) 100mcg x50COM</v>
+      </c>
+      <c r="C830">
+        <v>1</v>
+      </c>
+      <c r="D830">
+        <v>16990</v>
+      </c>
+      <c r="E830">
+        <v>16990</v>
+      </c>
+      <c r="F830">
+        <v>5630</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831">
+        <v>565</v>
+      </c>
+      <c r="B831" t="str">
+        <v>Escitalopram 10 mg x 30 Comprimidos</v>
+      </c>
+      <c r="C831">
+        <v>1</v>
+      </c>
+      <c r="D831">
+        <v>6990</v>
+      </c>
+      <c r="E831">
+        <v>6990</v>
+      </c>
+      <c r="F831">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832">
+        <v>565</v>
+      </c>
+      <c r="B832" t="str">
+        <v>Electrolit Bebida Hidratante Sabor Frutilla 625ml</v>
+      </c>
+      <c r="C832">
+        <v>1</v>
+      </c>
+      <c r="D832">
+        <v>1990</v>
+      </c>
+      <c r="E832">
+        <v>1990</v>
+      </c>
+      <c r="F832">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833">
+        <v>566</v>
+      </c>
+      <c r="B833" t="str">
+        <v>Naproxeno Sodico 550 Mg 10 Comprimidos</v>
+      </c>
+      <c r="C833">
+        <v>1</v>
+      </c>
+      <c r="D833">
+        <v>2390</v>
+      </c>
+      <c r="E833">
+        <v>2390</v>
+      </c>
+      <c r="F833">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834">
+        <v>567</v>
+      </c>
+      <c r="B834" t="str">
+        <v>Cepillo Dental PHB® Junior</v>
+      </c>
+      <c r="C834">
+        <v>1</v>
+      </c>
+      <c r="D834">
+        <v>3990</v>
+      </c>
+      <c r="E834">
+        <v>3990</v>
+      </c>
+      <c r="F834">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835">
+        <v>568</v>
+      </c>
+      <c r="B835" t="str">
+        <v>Mentholatum Lata Mentol 1.35% Unguento 12 gr</v>
+      </c>
+      <c r="C835">
+        <v>2</v>
+      </c>
+      <c r="D835">
+        <v>1590</v>
+      </c>
+      <c r="E835">
+        <v>3180</v>
+      </c>
+      <c r="F835">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836">
+        <v>568</v>
+      </c>
+      <c r="B836" t="str">
+        <v>Cepillo Dental PHB® plus medio</v>
+      </c>
+      <c r="C836">
+        <v>1</v>
+      </c>
+      <c r="D836">
+        <v>3990</v>
+      </c>
+      <c r="E836">
+        <v>3990</v>
+      </c>
+      <c r="F836">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837">
+        <v>568</v>
+      </c>
+      <c r="B837" t="str">
+        <v>Máquina Depilatoria Schick Exacta 3 unidades</v>
+      </c>
+      <c r="C837">
+        <v>1</v>
+      </c>
+      <c r="D837">
+        <v>2290</v>
+      </c>
+      <c r="E837">
+        <v>2290</v>
+      </c>
+      <c r="F837">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838">
+        <v>569</v>
+      </c>
+      <c r="B838" t="str">
+        <v>Hiprocel 0,5% x 10 mL Solucion Oftalmica</v>
+      </c>
+      <c r="C838">
+        <v>1</v>
+      </c>
+      <c r="D838">
+        <v>8990</v>
+      </c>
+      <c r="E838">
+        <v>8990</v>
+      </c>
+      <c r="F838">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839">
+        <v>569</v>
+      </c>
+      <c r="B839" t="str">
+        <v>Tapsin Puro Paracetamol 500 mg 24 Comprimidos</v>
+      </c>
+      <c r="C839">
+        <v>1</v>
+      </c>
+      <c r="D839">
+        <v>1990</v>
+      </c>
+      <c r="E839">
+        <v>1990</v>
+      </c>
+      <c r="F839">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840">
+        <v>570</v>
+      </c>
+      <c r="B840" t="str">
+        <v>BERSEN 20 MG 20 COMP</v>
+      </c>
+      <c r="C840">
+        <v>1</v>
+      </c>
+      <c r="D840">
+        <v>7140</v>
+      </c>
+      <c r="E840">
+        <v>7140</v>
+      </c>
+      <c r="F840">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841">
+        <v>571</v>
+      </c>
+      <c r="B841" t="str">
+        <v>Disilden Sildenafil 50 mg 10 Comprimidos</v>
+      </c>
+      <c r="C841">
+        <v>1</v>
+      </c>
+      <c r="D841">
+        <v>3990</v>
+      </c>
+      <c r="E841">
+        <v>3990</v>
+      </c>
+      <c r="F841">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842">
+        <v>571</v>
+      </c>
+      <c r="B842" t="str">
+        <v>BEPANTHOL UNGUENTO x30g</v>
+      </c>
+      <c r="C842">
+        <v>1</v>
+      </c>
+      <c r="D842">
+        <v>6250</v>
+      </c>
+      <c r="E842">
+        <v>6250</v>
+      </c>
+      <c r="F842">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843">
+        <v>572</v>
+      </c>
+      <c r="B843" t="str">
+        <v>ACIDO ACETILSALICILICO 100MG X 100 COMP.(BE)</v>
+      </c>
+      <c r="C843">
+        <v>1</v>
+      </c>
+      <c r="D843">
+        <v>3290</v>
+      </c>
+      <c r="E843">
+        <v>3290</v>
+      </c>
+      <c r="F843">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844">
+        <v>573</v>
+      </c>
+      <c r="B844" t="str">
+        <v>Fisiolimp Cloruro De Sodio 0,9% Solución Nasal</v>
+      </c>
+      <c r="C844">
+        <v>1</v>
+      </c>
+      <c r="D844">
+        <v>5490</v>
+      </c>
+      <c r="E844">
+        <v>5490</v>
+      </c>
+      <c r="F844">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845">
+        <v>574</v>
+      </c>
+      <c r="B845" t="str">
+        <v>Diclofenaco Sodico 100 mg x 8 cápsulas con gránulos recubiertos</v>
+      </c>
+      <c r="C845">
+        <v>1</v>
+      </c>
+      <c r="D845">
+        <v>1290</v>
+      </c>
+      <c r="E845">
+        <v>1290</v>
+      </c>
+      <c r="F845">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846">
+        <v>575</v>
+      </c>
+      <c r="B846" t="str">
+        <v>Bebida Coca Cola 591 ml 2</v>
+      </c>
+      <c r="C846">
+        <v>1</v>
+      </c>
+      <c r="D846">
+        <v>1400</v>
+      </c>
+      <c r="E846">
+        <v>1400</v>
+      </c>
+      <c r="F846">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847">
+        <v>576</v>
+      </c>
+      <c r="B847" t="str">
+        <v>KOTEX PROTECTOR 2 EN 1 X 20 UND</v>
+      </c>
+      <c r="C847">
+        <v>1</v>
+      </c>
+      <c r="D847">
+        <v>1050</v>
+      </c>
+      <c r="E847">
+        <v>1050</v>
+      </c>
+      <c r="F847">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F798"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F847"/>
   </ignoredErrors>
 </worksheet>
 </file>